--- a/documentacion/PlaTreball.xlsx
+++ b/documentacion/PlaTreball.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
   <si>
     <t xml:space="preserve">PLA DE TREBALL</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t xml:space="preserve">Creació del sistema auto-generador de PDF de obres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseny de cerca d’usuaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseny de vista d’usuari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseny de pagina d’ubicacions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rediseny de llista de obras i usuaris</t>
   </si>
 </sst>
 </file>
@@ -904,9 +916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>930240</xdr:colOff>
+      <xdr:colOff>929880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>722160</xdr:rowOff>
+      <xdr:rowOff>721800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -920,7 +932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2401560" cy="722160"/>
+          <a:ext cx="2401200" cy="721800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,9 +958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>930240</xdr:colOff>
+      <xdr:colOff>929880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>722160</xdr:rowOff>
+      <xdr:rowOff>721800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -962,7 +974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2401560" cy="722160"/>
+          <a:ext cx="2401200" cy="721800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,11 +996,11 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -1957,11 +1969,11 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2349,12 +2361,24 @@
       <c r="B24" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="C24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="I24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,12 +2388,24 @@
       <c r="B25" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="C25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="I25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,12 +2415,24 @@
       <c r="B26" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="C26" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="I26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,13 +2442,27 @@
       <c r="B27" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29"/>
+      <c r="C27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="n">

--- a/documentacion/PlaTreball.xlsx
+++ b/documentacion/PlaTreball.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
   <si>
     <t xml:space="preserve">PLA DE TREBALL</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t xml:space="preserve">Rediseny de llista de obras i usuaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema d’eliminació d’usuaris Front+Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creació de tablas per als vocabularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista d’usuari Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolució de problema al pujar foto incorrecta</t>
   </si>
 </sst>
 </file>
@@ -916,9 +928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>929880</xdr:colOff>
+      <xdr:colOff>929520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>721800</xdr:rowOff>
+      <xdr:rowOff>721440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -932,7 +944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2401200" cy="721800"/>
+          <a:ext cx="2400840" cy="721440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,9 +970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>929880</xdr:colOff>
+      <xdr:colOff>929520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>721800</xdr:rowOff>
+      <xdr:rowOff>721440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -974,7 +986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2401200" cy="721800"/>
+          <a:ext cx="2400840" cy="721440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,7 +1012,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -1970,10 +1982,10 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2406,7 +2418,9 @@
       <c r="H25" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="n">
@@ -2433,7 +2447,9 @@
       <c r="H26" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="n">
@@ -2471,13 +2487,27 @@
       <c r="B28" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="29"/>
+      <c r="C28" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="n">
@@ -2486,13 +2516,27 @@
       <c r="B29" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="29"/>
+      <c r="C29" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="n">
@@ -2501,13 +2545,27 @@
       <c r="B30" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="29"/>
+      <c r="C30" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="n">
@@ -2516,13 +2574,27 @@
       <c r="B31" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
+      <c r="C31" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="29" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="n">

--- a/documentacion/PlaTreball.xlsx
+++ b/documentacion/PlaTreball.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="77">
   <si>
     <t xml:space="preserve">PLA DE TREBALL</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t xml:space="preserve">Resolució de problema al pujar foto incorrecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creació de progress bar + disseny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadida opció de filtrar per estat amb camps de la bdd</t>
   </si>
 </sst>
 </file>
@@ -928,9 +934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>929520</xdr:colOff>
+      <xdr:colOff>929160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>721440</xdr:rowOff>
+      <xdr:rowOff>721080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -944,7 +950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2400840" cy="721440"/>
+          <a:ext cx="2400480" cy="721080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -970,9 +976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>929520</xdr:colOff>
+      <xdr:colOff>929160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>721440</xdr:rowOff>
+      <xdr:rowOff>721080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -986,7 +992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2400840" cy="721440"/>
+          <a:ext cx="2400480" cy="721080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1012,7 +1018,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -1981,11 +1987,11 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2160,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="29" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="29" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="29" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,7 +2397,9 @@
       <c r="H24" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="28" t="n">
@@ -2603,13 +2611,27 @@
       <c r="B32" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="29"/>
+      <c r="C32" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="n">
@@ -2618,13 +2640,27 @@
       <c r="B33" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="29"/>
+      <c r="C33" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="29" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="n">

--- a/documentacion/PlaTreball.xlsx
+++ b/documentacion/PlaTreball.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="85">
   <si>
     <t xml:space="preserve">PLA DE TREBALL</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t xml:space="preserve">Añadida opció de filtrar per estat amb camps de la bdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Ángel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambis en la base de dades i en els models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista de localitzacions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logica de localitzacions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear localitzacions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista exposicions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista crear exposicions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logica crear exposicions</t>
   </si>
 </sst>
 </file>
@@ -934,9 +958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>929160</xdr:colOff>
+      <xdr:colOff>928800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>721080</xdr:rowOff>
+      <xdr:rowOff>720720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -950,7 +974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2400480" cy="721080"/>
+          <a:ext cx="2400120" cy="720720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,9 +1000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>929160</xdr:colOff>
+      <xdr:colOff>928800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>721080</xdr:rowOff>
+      <xdr:rowOff>720720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -992,7 +1016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2400480" cy="721080"/>
+          <a:ext cx="2400120" cy="720720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,7 +1042,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -1988,10 +2012,10 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2669,13 +2693,27 @@
       <c r="B34" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="29"/>
+      <c r="C34" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="n">
@@ -2684,13 +2722,27 @@
       <c r="B35" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="29"/>
+      <c r="C35" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="n">
@@ -2699,13 +2751,27 @@
       <c r="B36" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="29"/>
+      <c r="C36" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="29" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="n">
@@ -2714,13 +2780,131 @@
       <c r="B37" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="29"/>
+      <c r="C37" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H40" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="29" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="31" t="s">

--- a/documentacion/PlaTreball.xlsx
+++ b/documentacion/PlaTreball.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="87">
   <si>
     <t xml:space="preserve">PLA DE TREBALL</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t xml:space="preserve">Logica crear exposicions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista de creacion de obras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista de modificacion de obras</t>
   </si>
 </sst>
 </file>
@@ -958,9 +964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>928800</xdr:colOff>
+      <xdr:colOff>928440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>720720</xdr:rowOff>
+      <xdr:rowOff>720360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -974,7 +980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2400120" cy="720720"/>
+          <a:ext cx="2399760" cy="720360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,9 +1006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>928800</xdr:colOff>
+      <xdr:colOff>928440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>720720</xdr:rowOff>
+      <xdr:rowOff>720360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,7 +1022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2400120" cy="720720"/>
+          <a:ext cx="2399760" cy="720360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1042,7 +1048,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2011,11 +2017,11 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2803,6 +2809,9 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="28" t="n">
+        <v>23</v>
+      </c>
       <c r="B38" s="28" t="n">
         <v>2</v>
       </c>
@@ -2829,6 +2838,9 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28" t="n">
+        <v>24</v>
+      </c>
       <c r="B39" s="28" t="n">
         <v>2</v>
       </c>
@@ -2855,6 +2867,9 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="28" t="n">
+        <v>25</v>
+      </c>
       <c r="B40" s="28" t="n">
         <v>2</v>
       </c>
@@ -2881,6 +2896,9 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="28" t="n">
+        <v>26</v>
+      </c>
       <c r="B41" s="28" t="n">
         <v>2</v>
       </c>
@@ -2905,6 +2923,139 @@
       <c r="I41" s="29" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B42" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="29" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B43" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="28" t="n">
+        <v>29</v>
+      </c>
+      <c r="B44" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="B45" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="28" t="n">
+        <v>31</v>
+      </c>
+      <c r="B46" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="28" t="n">
+        <v>32</v>
+      </c>
+      <c r="B47" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="n">
+        <v>33</v>
+      </c>
+      <c r="B48" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="31" t="s">

--- a/documentacion/PlaTreball.xlsx
+++ b/documentacion/PlaTreball.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="88">
   <si>
     <t xml:space="preserve">PLA DE TREBALL</t>
   </si>
@@ -197,12 +197,6 @@
     <t xml:space="preserve">Hores reals acumulades</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membres:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creació de la página usuaris</t>
   </si>
   <si>
@@ -282,6 +276,15 @@
   </si>
   <si>
     <t xml:space="preserve">Vista de modificacion de obras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de backups (backend)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseny de vocabularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de vocabularis (backend)</t>
   </si>
 </sst>
 </file>
@@ -964,9 +967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>928440</xdr:colOff>
+      <xdr:colOff>928080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>720360</xdr:rowOff>
+      <xdr:rowOff>720000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -980,7 +983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2399760" cy="720360"/>
+          <a:ext cx="2399400" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,9 +1009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>928440</xdr:colOff>
+      <xdr:colOff>928080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>720360</xdr:rowOff>
+      <xdr:rowOff>720000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1022,7 +1025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2399760" cy="720360"/>
+          <a:ext cx="2399400" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1045,10 +1048,10 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2018,10 +2021,10 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2051,34 +2054,42 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -2086,7 +2097,9 @@
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
@@ -2184,7 +2197,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>31</v>
@@ -2213,7 +2226,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>31</v>
@@ -2242,7 +2255,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>31</v>
@@ -2271,7 +2284,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>31</v>
@@ -2300,7 +2313,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>31</v>
@@ -2329,7 +2342,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>31</v>
@@ -2358,7 +2371,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>31</v>
@@ -2387,7 +2400,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>31</v>
@@ -2416,7 +2429,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>31</v>
@@ -2445,7 +2458,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>31</v>
@@ -2474,7 +2487,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>31</v>
@@ -2503,7 +2516,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>31</v>
@@ -2532,7 +2545,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>31</v>
@@ -2561,7 +2574,7 @@
         <v>33</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>31</v>
@@ -2590,7 +2603,7 @@
         <v>37</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>31</v>
@@ -2619,7 +2632,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>31</v>
@@ -2648,7 +2661,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>31</v>
@@ -2677,7 +2690,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>31</v>
@@ -2700,13 +2713,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>31</v>
@@ -2729,13 +2742,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>31</v>
@@ -2758,13 +2771,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>31</v>
@@ -2787,13 +2800,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>31</v>
@@ -2816,13 +2829,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>31</v>
@@ -2851,7 +2864,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>31</v>
@@ -2880,7 +2893,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>31</v>
@@ -2909,7 +2922,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F41" s="29" t="s">
         <v>31</v>
@@ -2938,7 +2951,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>31</v>
@@ -2967,7 +2980,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>31</v>
@@ -2989,13 +3002,27 @@
       <c r="B44" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="29"/>
+      <c r="C44" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="n">
@@ -3004,13 +3031,27 @@
       <c r="B45" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="29"/>
+      <c r="C45" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="n">
@@ -3019,13 +3060,27 @@
       <c r="B46" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="29"/>
+      <c r="C46" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="29" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="n">
@@ -3061,7 +3116,10 @@
       <c r="A51" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="31"/>
+      <c r="B51" s="31" t="n">
+        <f aca="false">SUM(G16:G46)</f>
+        <v>73</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="31" t="s">
@@ -3073,7 +3131,10 @@
       <c r="A53" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="31"/>
+      <c r="B53" s="31" t="n">
+        <f aca="false">SUM(I16:I46)</f>
+        <v>63.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentacion/PlaTreball.xlsx
+++ b/documentacion/PlaTreball.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sprint2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sprint3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="93">
   <si>
     <t xml:space="preserve">PLA DE TREBALL</t>
   </si>
@@ -285,6 +286,21 @@
   </si>
   <si>
     <t xml:space="preserve">Sistema de vocabularis (backend)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista de vocabularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creació d’Obres → Vista, Controlador i Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localitzacions → Vista, Controlador i Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestió de Exposicions → Vista, Controlador i Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casos d’Ús Sprint 3 i ajudar a terminar altres tasques</t>
   </si>
 </sst>
 </file>
@@ -295,7 +311,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-403];[RED]\-#,##0.00\ [$€-403]"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -441,6 +457,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -737,7 +765,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -863,6 +891,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -967,9 +1003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>928080</xdr:colOff>
+      <xdr:colOff>927720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>720000</xdr:rowOff>
+      <xdr:rowOff>719640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -983,7 +1019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2399400" cy="720000"/>
+          <a:ext cx="2399040" cy="719640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,9 +1045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>928080</xdr:colOff>
+      <xdr:colOff>927720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>720000</xdr:rowOff>
+      <xdr:rowOff>719640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1025,7 +1061,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="2399400" cy="720000"/>
+          <a:ext cx="2399040" cy="719640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>927720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>719640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9360" y="0"/>
+          <a:ext cx="2399040" cy="719640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,11 +1125,11 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -2020,11 +2098,11 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
@@ -3089,6 +3167,716 @@
       <c r="B47" s="28" t="n">
         <v>2</v>
       </c>
+      <c r="C47" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="n">
+        <v>33</v>
+      </c>
+      <c r="B48" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="31" t="n">
+        <f aca="false">SUM(G16:G46)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="31"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="31" t="n">
+        <f aca="false">SUM(I16:I46)</f>
+        <v>63.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPàgina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="30" t="n">
+        <v>12</v>
+      </c>
+      <c r="H16" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="30" t="n">
+        <v>16</v>
+      </c>
+      <c r="H19" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="28" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="n">
+        <v>15</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="n">
+        <v>16</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="28" t="n">
+        <v>17</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="n">
+        <v>19</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="29"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28" t="n">
+        <v>21</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28" t="n">
+        <v>24</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="28" t="n">
+        <v>29</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="28" t="n">
+        <v>31</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="28" t="n">
+        <v>32</v>
+      </c>
+      <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="30"/>
@@ -3101,9 +3889,7 @@
       <c r="A48" s="28" t="n">
         <v>33</v>
       </c>
-      <c r="B48" s="28" t="n">
-        <v>2</v>
-      </c>
+      <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="30"/>
@@ -3118,7 +3904,7 @@
       </c>
       <c r="B51" s="31" t="n">
         <f aca="false">SUM(G16:G46)</f>
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,7 +3919,7 @@
       </c>
       <c r="B53" s="31" t="n">
         <f aca="false">SUM(I16:I46)</f>
-        <v>63.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
